--- a/InputData/io-model/LPGRbIC/Labor Productivity Growth Rate by ISIC Code.xlsx
+++ b/InputData/io-model/LPGRbIC/Labor Productivity Growth Rate by ISIC Code.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-india\InputData\io-model\LPGRbIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-india\InputData\io-model\LPGRbIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'US GDP'!$A$4:$BL$268</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3313" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3314" uniqueCount="757">
   <si>
     <t>Source:</t>
   </si>
@@ -2314,6 +2314,12 @@
   </si>
   <si>
     <t>ISIC 21</t>
+  </si>
+  <si>
+    <t>ISIC 06</t>
+  </si>
+  <si>
+    <t>ISIC 05</t>
   </si>
 </sst>
 </file>
@@ -2736,22 +2742,22 @@
     <xf numFmtId="168" fontId="0" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="15" fillId="8" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="15" fillId="8" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2787,40 +2793,40 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2856,22 +2862,22 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3162,7 +3168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
@@ -47309,19 +47315,19 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AL3"/>
+  <dimension ref="A1:AM3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="38" width="10.1328125" customWidth="1"/>
+    <col min="2" max="39" width="10.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="14" t="s">
         <v>80</v>
       </c>
@@ -47329,115 +47335,118 @@
         <v>8</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>9</v>
+        <v>756</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>753</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>754</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>84</v>
       </c>
@@ -47458,8 +47467,8 @@
         <v>1.0301528567345902E-2</v>
       </c>
       <c r="F2" s="15">
-        <f>AVERAGE('OECD Manufacturing'!$D$43:$AB$43)/100*'Forecasted India GDP per capita'!$H$3</f>
-        <v>3.257460244685037E-2</v>
+        <f>AVERAGE('OECD Mining &amp; Utilities'!$D$43:$AB$43)/100*'Forecasted India GDP per capita'!$H$3</f>
+        <v>1.0301528567345902E-2</v>
       </c>
       <c r="G2" s="15">
         <f>AVERAGE('OECD Manufacturing'!$D$43:$AB$43)/100*'Forecasted India GDP per capita'!$H$3</f>
@@ -47526,16 +47535,16 @@
         <v>3.257460244685037E-2</v>
       </c>
       <c r="W2" s="15">
+        <f>AVERAGE('OECD Manufacturing'!$D$43:$AB$43)/100*'Forecasted India GDP per capita'!$H$3</f>
+        <v>3.257460244685037E-2</v>
+      </c>
+      <c r="X2" s="15">
         <f>AVERAGE('OECD Mining &amp; Utilities'!$D$43:$AB$43)/100*'Forecasted India GDP per capita'!$H$3</f>
         <v>1.0301528567345902E-2</v>
       </c>
-      <c r="X2" s="15">
+      <c r="Y2" s="15">
         <f>AVERAGE('OECD Construction'!$D$43:$AB$43)/100*'Forecasted India GDP per capita'!$H$3</f>
         <v>-2.113384454538841E-2</v>
-      </c>
-      <c r="Y2" s="15">
-        <f>AVERAGE('OECD Transport Retail Food'!$D$43:$AB$43)/100*'Forecasted India GDP per capita'!$H$3</f>
-        <v>7.2246687689661122E-3</v>
       </c>
       <c r="Z2" s="15">
         <f>AVERAGE('OECD Transport Retail Food'!$D$43:$AB$43)/100*'Forecasted India GDP per capita'!$H$3</f>
@@ -47546,8 +47555,8 @@
         <v>7.2246687689661122E-3</v>
       </c>
       <c r="AB2" s="15">
-        <f>AVERAGE('OECD Info Comms'!$D$43:$AB$43)/100*'Forecasted India GDP per capita'!$H$3</f>
-        <v>7.9349607724045382E-2</v>
+        <f>AVERAGE('OECD Transport Retail Food'!$D$43:$AB$43)/100*'Forecasted India GDP per capita'!$H$3</f>
+        <v>7.2246687689661122E-3</v>
       </c>
       <c r="AC2" s="15">
         <f>AVERAGE('OECD Info Comms'!$D$43:$AB$43)/100*'Forecasted India GDP per capita'!$H$3</f>
@@ -47558,8 +47567,8 @@
         <v>7.9349607724045382E-2</v>
       </c>
       <c r="AE2" s="15">
-        <f>AVERAGE('OECD Finance Insurance'!$D$43:$AB$43)/100*'Forecasted India GDP per capita'!$H$3</f>
-        <v>1.5181687141687172E-2</v>
+        <f>AVERAGE('OECD Info Comms'!$D$43:$AB$43)/100*'Forecasted India GDP per capita'!$H$3</f>
+        <v>7.9349607724045382E-2</v>
       </c>
       <c r="AF2" s="15">
         <f>AVERAGE('OECD Finance Insurance'!$D$43:$AB$43)/100*'Forecasted India GDP per capita'!$H$3</f>
@@ -47570,8 +47579,8 @@
         <v>1.5181687141687172E-2</v>
       </c>
       <c r="AH2" s="15">
-        <f>AVERAGE('OECD Prof Tech Admin'!$D$43:$AB$43)/100*'Forecasted India GDP per capita'!$H$3</f>
-        <v>5.6736807026209974E-3</v>
+        <f>AVERAGE('OECD Finance Insurance'!$D$43:$AB$43)/100*'Forecasted India GDP per capita'!$H$3</f>
+        <v>1.5181687141687172E-2</v>
       </c>
       <c r="AI2" s="15">
         <f>AVERAGE('OECD Prof Tech Admin'!$D$43:$AB$43)/100*'Forecasted India GDP per capita'!$H$3</f>
@@ -47586,11 +47595,16 @@
         <v>5.6736807026209974E-3</v>
       </c>
       <c r="AL2" s="15">
+        <f>AVERAGE('OECD Prof Tech Admin'!$D$43:$AB$43)/100*'Forecasted India GDP per capita'!$H$3</f>
+        <v>5.6736807026209974E-3</v>
+      </c>
+      <c r="AM2" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.45">
       <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -48057,72 +48071,72 @@
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="65" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="66"/>
-      <c r="AA3" s="66"/>
-      <c r="AB3" s="67"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="50"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="65" t="s">
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
-      <c r="S4" s="66"/>
-      <c r="T4" s="66"/>
-      <c r="U4" s="66"/>
-      <c r="V4" s="66"/>
-      <c r="W4" s="66"/>
-      <c r="X4" s="66"/>
-      <c r="Y4" s="66"/>
-      <c r="Z4" s="66"/>
-      <c r="AA4" s="66"/>
-      <c r="AB4" s="67"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="49"/>
+      <c r="W4" s="49"/>
+      <c r="X4" s="49"/>
+      <c r="Y4" s="49"/>
+      <c r="Z4" s="49"/>
+      <c r="AA4" s="49"/>
+      <c r="AB4" s="50"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A5" s="51" t="s">
@@ -48359,10 +48373,10 @@
       </c>
     </row>
     <row r="9" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="B9" s="46"/>
+      <c r="B9" s="63"/>
       <c r="C9" s="20" t="s">
         <v>7</v>
       </c>
@@ -48443,10 +48457,10 @@
       </c>
     </row>
     <row r="10" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="B10" s="46"/>
+      <c r="B10" s="63"/>
       <c r="C10" s="20" t="s">
         <v>7</v>
       </c>
@@ -48527,10 +48541,10 @@
       </c>
     </row>
     <row r="11" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="B11" s="46"/>
+      <c r="B11" s="63"/>
       <c r="C11" s="20" t="s">
         <v>7</v>
       </c>
@@ -48611,10 +48625,10 @@
       </c>
     </row>
     <row r="12" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="B12" s="46"/>
+      <c r="B12" s="63"/>
       <c r="C12" s="20" t="s">
         <v>7</v>
       </c>
@@ -48695,10 +48709,10 @@
       </c>
     </row>
     <row r="13" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="B13" s="46"/>
+      <c r="B13" s="63"/>
       <c r="C13" s="20" t="s">
         <v>7</v>
       </c>
@@ -48779,10 +48793,10 @@
       </c>
     </row>
     <row r="14" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="B14" s="46"/>
+      <c r="B14" s="63"/>
       <c r="C14" s="20" t="s">
         <v>7</v>
       </c>
@@ -48863,10 +48877,10 @@
       </c>
     </row>
     <row r="15" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="B15" s="46"/>
+      <c r="B15" s="63"/>
       <c r="C15" s="20" t="s">
         <v>7</v>
       </c>
@@ -48947,10 +48961,10 @@
       </c>
     </row>
     <row r="16" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="62" t="s">
         <v>124</v>
       </c>
-      <c r="B16" s="46"/>
+      <c r="B16" s="63"/>
       <c r="C16" s="20" t="s">
         <v>7</v>
       </c>
@@ -49031,10 +49045,10 @@
       </c>
     </row>
     <row r="17" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="62" t="s">
         <v>125</v>
       </c>
-      <c r="B17" s="46"/>
+      <c r="B17" s="63"/>
       <c r="C17" s="20" t="s">
         <v>7</v>
       </c>
@@ -49115,10 +49129,10 @@
       </c>
     </row>
     <row r="18" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="B18" s="46"/>
+      <c r="B18" s="63"/>
       <c r="C18" s="20" t="s">
         <v>7</v>
       </c>
@@ -49199,10 +49213,10 @@
       </c>
     </row>
     <row r="19" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="B19" s="50"/>
+      <c r="B19" s="65"/>
       <c r="C19" s="20" t="s">
         <v>7</v>
       </c>
@@ -49283,10 +49297,10 @@
       </c>
     </row>
     <row r="20" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="B20" s="46"/>
+      <c r="B20" s="63"/>
       <c r="C20" s="20" t="s">
         <v>7</v>
       </c>
@@ -49367,10 +49381,10 @@
       </c>
     </row>
     <row r="21" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="B21" s="46"/>
+      <c r="B21" s="63"/>
       <c r="C21" s="20" t="s">
         <v>7</v>
       </c>
@@ -49451,10 +49465,10 @@
       </c>
     </row>
     <row r="22" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="62" t="s">
         <v>130</v>
       </c>
-      <c r="B22" s="46"/>
+      <c r="B22" s="63"/>
       <c r="C22" s="20" t="s">
         <v>7</v>
       </c>
@@ -49535,10 +49549,10 @@
       </c>
     </row>
     <row r="23" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="B23" s="50"/>
+      <c r="B23" s="65"/>
       <c r="C23" s="20" t="s">
         <v>7</v>
       </c>
@@ -49619,10 +49633,10 @@
       </c>
     </row>
     <row r="24" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A24" s="49" t="s">
+      <c r="A24" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="B24" s="50"/>
+      <c r="B24" s="65"/>
       <c r="C24" s="20" t="s">
         <v>7</v>
       </c>
@@ -49703,10 +49717,10 @@
       </c>
     </row>
     <row r="25" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="B25" s="46"/>
+      <c r="B25" s="63"/>
       <c r="C25" s="20" t="s">
         <v>7</v>
       </c>
@@ -49787,10 +49801,10 @@
       </c>
     </row>
     <row r="26" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A26" s="45" t="s">
+      <c r="A26" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="B26" s="46"/>
+      <c r="B26" s="63"/>
       <c r="C26" s="20" t="s">
         <v>7</v>
       </c>
@@ -49871,10 +49885,10 @@
       </c>
     </row>
     <row r="27" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="B27" s="46"/>
+      <c r="B27" s="63"/>
       <c r="C27" s="20" t="s">
         <v>7</v>
       </c>
@@ -49955,10 +49969,10 @@
       </c>
     </row>
     <row r="28" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="B28" s="46"/>
+      <c r="B28" s="63"/>
       <c r="C28" s="20" t="s">
         <v>7</v>
       </c>
@@ -50039,10 +50053,10 @@
       </c>
     </row>
     <row r="29" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A29" s="45" t="s">
+      <c r="A29" s="62" t="s">
         <v>135</v>
       </c>
-      <c r="B29" s="46"/>
+      <c r="B29" s="63"/>
       <c r="C29" s="20" t="s">
         <v>7</v>
       </c>
@@ -50123,10 +50137,10 @@
       </c>
     </row>
     <row r="30" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A30" s="45" t="s">
+      <c r="A30" s="62" t="s">
         <v>136</v>
       </c>
-      <c r="B30" s="46"/>
+      <c r="B30" s="63"/>
       <c r="C30" s="20" t="s">
         <v>7</v>
       </c>
@@ -50207,10 +50221,10 @@
       </c>
     </row>
     <row r="31" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="62" t="s">
         <v>137</v>
       </c>
-      <c r="B31" s="46"/>
+      <c r="B31" s="63"/>
       <c r="C31" s="20" t="s">
         <v>7</v>
       </c>
@@ -50291,10 +50305,10 @@
       </c>
     </row>
     <row r="32" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A32" s="45" t="s">
+      <c r="A32" s="62" t="s">
         <v>138</v>
       </c>
-      <c r="B32" s="46"/>
+      <c r="B32" s="63"/>
       <c r="C32" s="20" t="s">
         <v>7</v>
       </c>
@@ -50375,10 +50389,10 @@
       </c>
     </row>
     <row r="33" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="62" t="s">
         <v>139</v>
       </c>
-      <c r="B33" s="46"/>
+      <c r="B33" s="63"/>
       <c r="C33" s="20" t="s">
         <v>7</v>
       </c>
@@ -50459,10 +50473,10 @@
       </c>
     </row>
     <row r="34" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="62" t="s">
         <v>140</v>
       </c>
-      <c r="B34" s="46"/>
+      <c r="B34" s="63"/>
       <c r="C34" s="20" t="s">
         <v>7</v>
       </c>
@@ -50543,10 +50557,10 @@
       </c>
     </row>
     <row r="35" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A35" s="45" t="s">
+      <c r="A35" s="62" t="s">
         <v>141</v>
       </c>
-      <c r="B35" s="46"/>
+      <c r="B35" s="63"/>
       <c r="C35" s="20" t="s">
         <v>7</v>
       </c>
@@ -50627,10 +50641,10 @@
       </c>
     </row>
     <row r="36" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A36" s="45" t="s">
+      <c r="A36" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="B36" s="46"/>
+      <c r="B36" s="63"/>
       <c r="C36" s="20" t="s">
         <v>7</v>
       </c>
@@ -50711,10 +50725,10 @@
       </c>
     </row>
     <row r="37" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A37" s="45" t="s">
+      <c r="A37" s="62" t="s">
         <v>143</v>
       </c>
-      <c r="B37" s="46"/>
+      <c r="B37" s="63"/>
       <c r="C37" s="20" t="s">
         <v>7</v>
       </c>
@@ -50795,10 +50809,10 @@
       </c>
     </row>
     <row r="38" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A38" s="45" t="s">
+      <c r="A38" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="B38" s="46"/>
+      <c r="B38" s="63"/>
       <c r="C38" s="20" t="s">
         <v>7</v>
       </c>
@@ -50879,10 +50893,10 @@
       </c>
     </row>
     <row r="39" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A39" s="45" t="s">
+      <c r="A39" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="B39" s="46"/>
+      <c r="B39" s="63"/>
       <c r="C39" s="20" t="s">
         <v>7</v>
       </c>
@@ -50963,10 +50977,10 @@
       </c>
     </row>
     <row r="40" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A40" s="45" t="s">
+      <c r="A40" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="B40" s="46"/>
+      <c r="B40" s="63"/>
       <c r="C40" s="20" t="s">
         <v>7</v>
       </c>
@@ -51047,10 +51061,10 @@
       </c>
     </row>
     <row r="41" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A41" s="45" t="s">
+      <c r="A41" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="B41" s="46"/>
+      <c r="B41" s="63"/>
       <c r="C41" s="20" t="s">
         <v>7</v>
       </c>
@@ -51131,10 +51145,10 @@
       </c>
     </row>
     <row r="42" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A42" s="45" t="s">
+      <c r="A42" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="B42" s="46"/>
+      <c r="B42" s="63"/>
       <c r="C42" s="20" t="s">
         <v>7</v>
       </c>
@@ -51215,10 +51229,10 @@
       </c>
     </row>
     <row r="43" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A43" s="45" t="s">
+      <c r="A43" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="B43" s="46"/>
+      <c r="B43" s="63"/>
       <c r="C43" s="20" t="s">
         <v>7</v>
       </c>
@@ -51299,10 +51313,10 @@
       </c>
     </row>
     <row r="44" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A44" s="45" t="s">
+      <c r="A44" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="B44" s="46"/>
+      <c r="B44" s="63"/>
       <c r="C44" s="20" t="s">
         <v>7</v>
       </c>
@@ -51383,10 +51397,10 @@
       </c>
     </row>
     <row r="45" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A45" s="45" t="s">
+      <c r="A45" s="62" t="s">
         <v>149</v>
       </c>
-      <c r="B45" s="46"/>
+      <c r="B45" s="63"/>
       <c r="C45" s="20" t="s">
         <v>7</v>
       </c>
@@ -51467,7 +51481,7 @@
       </c>
     </row>
     <row r="46" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A46" s="47" t="s">
+      <c r="A46" s="66" t="s">
         <v>150</v>
       </c>
       <c r="B46" s="23" t="s">
@@ -51553,7 +51567,7 @@
       </c>
     </row>
     <row r="47" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A47" s="48"/>
+      <c r="A47" s="67"/>
       <c r="B47" s="23" t="s">
         <v>151</v>
       </c>
@@ -51643,36 +51657,11 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:AB3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:AB4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:AB6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:AB7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:A47"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A30:B30"/>
@@ -51686,11 +51675,36 @@
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:AB6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:AB7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:AB3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:AB4"/>
+    <mergeCell ref="A5:C5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;ShowOnWeb=true&amp;Lang=en"/>
@@ -51735,72 +51749,72 @@
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="65" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="66"/>
-      <c r="AA3" s="66"/>
-      <c r="AB3" s="67"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="50"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="65" t="s">
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
-      <c r="S4" s="66"/>
-      <c r="T4" s="66"/>
-      <c r="U4" s="66"/>
-      <c r="V4" s="66"/>
-      <c r="W4" s="66"/>
-      <c r="X4" s="66"/>
-      <c r="Y4" s="66"/>
-      <c r="Z4" s="66"/>
-      <c r="AA4" s="66"/>
-      <c r="AB4" s="67"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="49"/>
+      <c r="W4" s="49"/>
+      <c r="X4" s="49"/>
+      <c r="Y4" s="49"/>
+      <c r="Z4" s="49"/>
+      <c r="AA4" s="49"/>
+      <c r="AB4" s="50"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A5" s="51" t="s">
@@ -52037,10 +52051,10 @@
       </c>
     </row>
     <row r="9" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="B9" s="46"/>
+      <c r="B9" s="63"/>
       <c r="C9" s="20" t="s">
         <v>7</v>
       </c>
@@ -52121,10 +52135,10 @@
       </c>
     </row>
     <row r="10" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="B10" s="46"/>
+      <c r="B10" s="63"/>
       <c r="C10" s="20" t="s">
         <v>7</v>
       </c>
@@ -52205,10 +52219,10 @@
       </c>
     </row>
     <row r="11" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="B11" s="46"/>
+      <c r="B11" s="63"/>
       <c r="C11" s="20" t="s">
         <v>7</v>
       </c>
@@ -52289,10 +52303,10 @@
       </c>
     </row>
     <row r="12" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="B12" s="46"/>
+      <c r="B12" s="63"/>
       <c r="C12" s="20" t="s">
         <v>7</v>
       </c>
@@ -52373,10 +52387,10 @@
       </c>
     </row>
     <row r="13" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="B13" s="46"/>
+      <c r="B13" s="63"/>
       <c r="C13" s="20" t="s">
         <v>7</v>
       </c>
@@ -52457,10 +52471,10 @@
       </c>
     </row>
     <row r="14" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="B14" s="46"/>
+      <c r="B14" s="63"/>
       <c r="C14" s="20" t="s">
         <v>7</v>
       </c>
@@ -52541,10 +52555,10 @@
       </c>
     </row>
     <row r="15" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="B15" s="46"/>
+      <c r="B15" s="63"/>
       <c r="C15" s="20" t="s">
         <v>7</v>
       </c>
@@ -52625,10 +52639,10 @@
       </c>
     </row>
     <row r="16" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="62" t="s">
         <v>124</v>
       </c>
-      <c r="B16" s="46"/>
+      <c r="B16" s="63"/>
       <c r="C16" s="20" t="s">
         <v>7</v>
       </c>
@@ -52709,10 +52723,10 @@
       </c>
     </row>
     <row r="17" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="62" t="s">
         <v>125</v>
       </c>
-      <c r="B17" s="46"/>
+      <c r="B17" s="63"/>
       <c r="C17" s="20" t="s">
         <v>7</v>
       </c>
@@ -52793,10 +52807,10 @@
       </c>
     </row>
     <row r="18" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="B18" s="46"/>
+      <c r="B18" s="63"/>
       <c r="C18" s="20" t="s">
         <v>7</v>
       </c>
@@ -52877,10 +52891,10 @@
       </c>
     </row>
     <row r="19" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="B19" s="50"/>
+      <c r="B19" s="65"/>
       <c r="C19" s="20" t="s">
         <v>7</v>
       </c>
@@ -52961,10 +52975,10 @@
       </c>
     </row>
     <row r="20" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="B20" s="46"/>
+      <c r="B20" s="63"/>
       <c r="C20" s="20" t="s">
         <v>7</v>
       </c>
@@ -53045,10 +53059,10 @@
       </c>
     </row>
     <row r="21" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="B21" s="46"/>
+      <c r="B21" s="63"/>
       <c r="C21" s="20" t="s">
         <v>7</v>
       </c>
@@ -53129,10 +53143,10 @@
       </c>
     </row>
     <row r="22" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="62" t="s">
         <v>130</v>
       </c>
-      <c r="B22" s="46"/>
+      <c r="B22" s="63"/>
       <c r="C22" s="20" t="s">
         <v>7</v>
       </c>
@@ -53213,10 +53227,10 @@
       </c>
     </row>
     <row r="23" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="B23" s="50"/>
+      <c r="B23" s="65"/>
       <c r="C23" s="20" t="s">
         <v>7</v>
       </c>
@@ -53297,10 +53311,10 @@
       </c>
     </row>
     <row r="24" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A24" s="49" t="s">
+      <c r="A24" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="B24" s="50"/>
+      <c r="B24" s="65"/>
       <c r="C24" s="20" t="s">
         <v>7</v>
       </c>
@@ -53381,10 +53395,10 @@
       </c>
     </row>
     <row r="25" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="B25" s="46"/>
+      <c r="B25" s="63"/>
       <c r="C25" s="20" t="s">
         <v>7</v>
       </c>
@@ -53465,10 +53479,10 @@
       </c>
     </row>
     <row r="26" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A26" s="45" t="s">
+      <c r="A26" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="B26" s="46"/>
+      <c r="B26" s="63"/>
       <c r="C26" s="20" t="s">
         <v>7</v>
       </c>
@@ -53549,10 +53563,10 @@
       </c>
     </row>
     <row r="27" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="B27" s="46"/>
+      <c r="B27" s="63"/>
       <c r="C27" s="20" t="s">
         <v>7</v>
       </c>
@@ -53633,10 +53647,10 @@
       </c>
     </row>
     <row r="28" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="B28" s="46"/>
+      <c r="B28" s="63"/>
       <c r="C28" s="20" t="s">
         <v>7</v>
       </c>
@@ -53717,10 +53731,10 @@
       </c>
     </row>
     <row r="29" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A29" s="45" t="s">
+      <c r="A29" s="62" t="s">
         <v>135</v>
       </c>
-      <c r="B29" s="46"/>
+      <c r="B29" s="63"/>
       <c r="C29" s="20" t="s">
         <v>7</v>
       </c>
@@ -53801,10 +53815,10 @@
       </c>
     </row>
     <row r="30" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A30" s="45" t="s">
+      <c r="A30" s="62" t="s">
         <v>136</v>
       </c>
-      <c r="B30" s="46"/>
+      <c r="B30" s="63"/>
       <c r="C30" s="20" t="s">
         <v>7</v>
       </c>
@@ -53885,10 +53899,10 @@
       </c>
     </row>
     <row r="31" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="62" t="s">
         <v>137</v>
       </c>
-      <c r="B31" s="46"/>
+      <c r="B31" s="63"/>
       <c r="C31" s="20" t="s">
         <v>7</v>
       </c>
@@ -53969,10 +53983,10 @@
       </c>
     </row>
     <row r="32" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A32" s="45" t="s">
+      <c r="A32" s="62" t="s">
         <v>138</v>
       </c>
-      <c r="B32" s="46"/>
+      <c r="B32" s="63"/>
       <c r="C32" s="20" t="s">
         <v>7</v>
       </c>
@@ -54053,10 +54067,10 @@
       </c>
     </row>
     <row r="33" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="62" t="s">
         <v>139</v>
       </c>
-      <c r="B33" s="46"/>
+      <c r="B33" s="63"/>
       <c r="C33" s="20" t="s">
         <v>7</v>
       </c>
@@ -54137,10 +54151,10 @@
       </c>
     </row>
     <row r="34" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="62" t="s">
         <v>140</v>
       </c>
-      <c r="B34" s="46"/>
+      <c r="B34" s="63"/>
       <c r="C34" s="20" t="s">
         <v>7</v>
       </c>
@@ -54221,10 +54235,10 @@
       </c>
     </row>
     <row r="35" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A35" s="45" t="s">
+      <c r="A35" s="62" t="s">
         <v>141</v>
       </c>
-      <c r="B35" s="46"/>
+      <c r="B35" s="63"/>
       <c r="C35" s="20" t="s">
         <v>7</v>
       </c>
@@ -54305,10 +54319,10 @@
       </c>
     </row>
     <row r="36" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A36" s="45" t="s">
+      <c r="A36" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="B36" s="46"/>
+      <c r="B36" s="63"/>
       <c r="C36" s="20" t="s">
         <v>7</v>
       </c>
@@ -54389,10 +54403,10 @@
       </c>
     </row>
     <row r="37" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A37" s="45" t="s">
+      <c r="A37" s="62" t="s">
         <v>143</v>
       </c>
-      <c r="B37" s="46"/>
+      <c r="B37" s="63"/>
       <c r="C37" s="20" t="s">
         <v>7</v>
       </c>
@@ -54473,10 +54487,10 @@
       </c>
     </row>
     <row r="38" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A38" s="45" t="s">
+      <c r="A38" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="B38" s="46"/>
+      <c r="B38" s="63"/>
       <c r="C38" s="20" t="s">
         <v>7</v>
       </c>
@@ -54557,10 +54571,10 @@
       </c>
     </row>
     <row r="39" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A39" s="45" t="s">
+      <c r="A39" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="B39" s="46"/>
+      <c r="B39" s="63"/>
       <c r="C39" s="20" t="s">
         <v>7</v>
       </c>
@@ -54641,10 +54655,10 @@
       </c>
     </row>
     <row r="40" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A40" s="45" t="s">
+      <c r="A40" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="B40" s="46"/>
+      <c r="B40" s="63"/>
       <c r="C40" s="20" t="s">
         <v>7</v>
       </c>
@@ -54725,10 +54739,10 @@
       </c>
     </row>
     <row r="41" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A41" s="45" t="s">
+      <c r="A41" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="B41" s="46"/>
+      <c r="B41" s="63"/>
       <c r="C41" s="20" t="s">
         <v>7</v>
       </c>
@@ -54809,10 +54823,10 @@
       </c>
     </row>
     <row r="42" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A42" s="45" t="s">
+      <c r="A42" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="B42" s="46"/>
+      <c r="B42" s="63"/>
       <c r="C42" s="20" t="s">
         <v>7</v>
       </c>
@@ -54893,10 +54907,10 @@
       </c>
     </row>
     <row r="43" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A43" s="45" t="s">
+      <c r="A43" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="B43" s="46"/>
+      <c r="B43" s="63"/>
       <c r="C43" s="20" t="s">
         <v>7</v>
       </c>
@@ -54977,10 +54991,10 @@
       </c>
     </row>
     <row r="44" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A44" s="45" t="s">
+      <c r="A44" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="B44" s="46"/>
+      <c r="B44" s="63"/>
       <c r="C44" s="20" t="s">
         <v>7</v>
       </c>
@@ -55061,10 +55075,10 @@
       </c>
     </row>
     <row r="45" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A45" s="45" t="s">
+      <c r="A45" s="62" t="s">
         <v>149</v>
       </c>
-      <c r="B45" s="46"/>
+      <c r="B45" s="63"/>
       <c r="C45" s="20" t="s">
         <v>7</v>
       </c>
@@ -55145,7 +55159,7 @@
       </c>
     </row>
     <row r="46" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A46" s="47" t="s">
+      <c r="A46" s="66" t="s">
         <v>150</v>
       </c>
       <c r="B46" s="23" t="s">
@@ -55231,7 +55245,7 @@
       </c>
     </row>
     <row r="47" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A47" s="48"/>
+      <c r="A47" s="67"/>
       <c r="B47" s="23" t="s">
         <v>151</v>
       </c>
@@ -55321,36 +55335,11 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:AB3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:AB4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:AB6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:AB7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:A47"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A30:B30"/>
@@ -55364,11 +55353,36 @@
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:AB6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:AB7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:AB3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:AB4"/>
+    <mergeCell ref="A5:C5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;ShowOnWeb=true&amp;Lang=en"/>
@@ -55413,72 +55427,72 @@
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="65" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="66"/>
-      <c r="AA3" s="66"/>
-      <c r="AB3" s="67"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="50"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="65" t="s">
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
-      <c r="S4" s="66"/>
-      <c r="T4" s="66"/>
-      <c r="U4" s="66"/>
-      <c r="V4" s="66"/>
-      <c r="W4" s="66"/>
-      <c r="X4" s="66"/>
-      <c r="Y4" s="66"/>
-      <c r="Z4" s="66"/>
-      <c r="AA4" s="66"/>
-      <c r="AB4" s="67"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="49"/>
+      <c r="W4" s="49"/>
+      <c r="X4" s="49"/>
+      <c r="Y4" s="49"/>
+      <c r="Z4" s="49"/>
+      <c r="AA4" s="49"/>
+      <c r="AB4" s="50"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A5" s="51" t="s">
@@ -55715,10 +55729,10 @@
       </c>
     </row>
     <row r="9" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="B9" s="46"/>
+      <c r="B9" s="63"/>
       <c r="C9" s="20" t="s">
         <v>7</v>
       </c>
@@ -55799,10 +55813,10 @@
       </c>
     </row>
     <row r="10" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="B10" s="46"/>
+      <c r="B10" s="63"/>
       <c r="C10" s="20" t="s">
         <v>7</v>
       </c>
@@ -55883,10 +55897,10 @@
       </c>
     </row>
     <row r="11" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="B11" s="46"/>
+      <c r="B11" s="63"/>
       <c r="C11" s="20" t="s">
         <v>7</v>
       </c>
@@ -55967,10 +55981,10 @@
       </c>
     </row>
     <row r="12" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="B12" s="46"/>
+      <c r="B12" s="63"/>
       <c r="C12" s="20" t="s">
         <v>7</v>
       </c>
@@ -56051,10 +56065,10 @@
       </c>
     </row>
     <row r="13" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="B13" s="46"/>
+      <c r="B13" s="63"/>
       <c r="C13" s="20" t="s">
         <v>7</v>
       </c>
@@ -56135,10 +56149,10 @@
       </c>
     </row>
     <row r="14" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="B14" s="46"/>
+      <c r="B14" s="63"/>
       <c r="C14" s="20" t="s">
         <v>7</v>
       </c>
@@ -56219,10 +56233,10 @@
       </c>
     </row>
     <row r="15" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="B15" s="46"/>
+      <c r="B15" s="63"/>
       <c r="C15" s="20" t="s">
         <v>7</v>
       </c>
@@ -56303,10 +56317,10 @@
       </c>
     </row>
     <row r="16" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="62" t="s">
         <v>124</v>
       </c>
-      <c r="B16" s="46"/>
+      <c r="B16" s="63"/>
       <c r="C16" s="20" t="s">
         <v>7</v>
       </c>
@@ -56387,10 +56401,10 @@
       </c>
     </row>
     <row r="17" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="62" t="s">
         <v>125</v>
       </c>
-      <c r="B17" s="46"/>
+      <c r="B17" s="63"/>
       <c r="C17" s="20" t="s">
         <v>7</v>
       </c>
@@ -56471,10 +56485,10 @@
       </c>
     </row>
     <row r="18" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="B18" s="46"/>
+      <c r="B18" s="63"/>
       <c r="C18" s="20" t="s">
         <v>7</v>
       </c>
@@ -56555,10 +56569,10 @@
       </c>
     </row>
     <row r="19" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="B19" s="50"/>
+      <c r="B19" s="65"/>
       <c r="C19" s="20" t="s">
         <v>7</v>
       </c>
@@ -56639,10 +56653,10 @@
       </c>
     </row>
     <row r="20" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="B20" s="46"/>
+      <c r="B20" s="63"/>
       <c r="C20" s="20" t="s">
         <v>7</v>
       </c>
@@ -56723,10 +56737,10 @@
       </c>
     </row>
     <row r="21" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="B21" s="46"/>
+      <c r="B21" s="63"/>
       <c r="C21" s="20" t="s">
         <v>7</v>
       </c>
@@ -56807,10 +56821,10 @@
       </c>
     </row>
     <row r="22" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="62" t="s">
         <v>130</v>
       </c>
-      <c r="B22" s="46"/>
+      <c r="B22" s="63"/>
       <c r="C22" s="20" t="s">
         <v>7</v>
       </c>
@@ -56891,10 +56905,10 @@
       </c>
     </row>
     <row r="23" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="B23" s="50"/>
+      <c r="B23" s="65"/>
       <c r="C23" s="20" t="s">
         <v>7</v>
       </c>
@@ -56975,10 +56989,10 @@
       </c>
     </row>
     <row r="24" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A24" s="49" t="s">
+      <c r="A24" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="B24" s="50"/>
+      <c r="B24" s="65"/>
       <c r="C24" s="20" t="s">
         <v>7</v>
       </c>
@@ -57059,10 +57073,10 @@
       </c>
     </row>
     <row r="25" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="B25" s="46"/>
+      <c r="B25" s="63"/>
       <c r="C25" s="20" t="s">
         <v>7</v>
       </c>
@@ -57143,10 +57157,10 @@
       </c>
     </row>
     <row r="26" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A26" s="45" t="s">
+      <c r="A26" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="B26" s="46"/>
+      <c r="B26" s="63"/>
       <c r="C26" s="20" t="s">
         <v>7</v>
       </c>
@@ -57227,10 +57241,10 @@
       </c>
     </row>
     <row r="27" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="B27" s="46"/>
+      <c r="B27" s="63"/>
       <c r="C27" s="20" t="s">
         <v>7</v>
       </c>
@@ -57311,10 +57325,10 @@
       </c>
     </row>
     <row r="28" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="B28" s="46"/>
+      <c r="B28" s="63"/>
       <c r="C28" s="20" t="s">
         <v>7</v>
       </c>
@@ -57395,10 +57409,10 @@
       </c>
     </row>
     <row r="29" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A29" s="45" t="s">
+      <c r="A29" s="62" t="s">
         <v>135</v>
       </c>
-      <c r="B29" s="46"/>
+      <c r="B29" s="63"/>
       <c r="C29" s="20" t="s">
         <v>7</v>
       </c>
@@ -57479,10 +57493,10 @@
       </c>
     </row>
     <row r="30" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A30" s="45" t="s">
+      <c r="A30" s="62" t="s">
         <v>136</v>
       </c>
-      <c r="B30" s="46"/>
+      <c r="B30" s="63"/>
       <c r="C30" s="20" t="s">
         <v>7</v>
       </c>
@@ -57563,10 +57577,10 @@
       </c>
     </row>
     <row r="31" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="62" t="s">
         <v>137</v>
       </c>
-      <c r="B31" s="46"/>
+      <c r="B31" s="63"/>
       <c r="C31" s="20" t="s">
         <v>7</v>
       </c>
@@ -57647,10 +57661,10 @@
       </c>
     </row>
     <row r="32" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A32" s="45" t="s">
+      <c r="A32" s="62" t="s">
         <v>138</v>
       </c>
-      <c r="B32" s="46"/>
+      <c r="B32" s="63"/>
       <c r="C32" s="20" t="s">
         <v>7</v>
       </c>
@@ -57731,10 +57745,10 @@
       </c>
     </row>
     <row r="33" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="62" t="s">
         <v>139</v>
       </c>
-      <c r="B33" s="46"/>
+      <c r="B33" s="63"/>
       <c r="C33" s="20" t="s">
         <v>7</v>
       </c>
@@ -57815,10 +57829,10 @@
       </c>
     </row>
     <row r="34" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="62" t="s">
         <v>140</v>
       </c>
-      <c r="B34" s="46"/>
+      <c r="B34" s="63"/>
       <c r="C34" s="20" t="s">
         <v>7</v>
       </c>
@@ -57899,10 +57913,10 @@
       </c>
     </row>
     <row r="35" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A35" s="45" t="s">
+      <c r="A35" s="62" t="s">
         <v>141</v>
       </c>
-      <c r="B35" s="46"/>
+      <c r="B35" s="63"/>
       <c r="C35" s="20" t="s">
         <v>7</v>
       </c>
@@ -57983,10 +57997,10 @@
       </c>
     </row>
     <row r="36" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A36" s="45" t="s">
+      <c r="A36" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="B36" s="46"/>
+      <c r="B36" s="63"/>
       <c r="C36" s="20" t="s">
         <v>7</v>
       </c>
@@ -58067,10 +58081,10 @@
       </c>
     </row>
     <row r="37" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A37" s="45" t="s">
+      <c r="A37" s="62" t="s">
         <v>143</v>
       </c>
-      <c r="B37" s="46"/>
+      <c r="B37" s="63"/>
       <c r="C37" s="20" t="s">
         <v>7</v>
       </c>
@@ -58151,10 +58165,10 @@
       </c>
     </row>
     <row r="38" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A38" s="45" t="s">
+      <c r="A38" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="B38" s="46"/>
+      <c r="B38" s="63"/>
       <c r="C38" s="20" t="s">
         <v>7</v>
       </c>
@@ -58235,10 +58249,10 @@
       </c>
     </row>
     <row r="39" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A39" s="45" t="s">
+      <c r="A39" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="B39" s="46"/>
+      <c r="B39" s="63"/>
       <c r="C39" s="20" t="s">
         <v>7</v>
       </c>
@@ -58319,10 +58333,10 @@
       </c>
     </row>
     <row r="40" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A40" s="45" t="s">
+      <c r="A40" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="B40" s="46"/>
+      <c r="B40" s="63"/>
       <c r="C40" s="20" t="s">
         <v>7</v>
       </c>
@@ -58403,10 +58417,10 @@
       </c>
     </row>
     <row r="41" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A41" s="45" t="s">
+      <c r="A41" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="B41" s="46"/>
+      <c r="B41" s="63"/>
       <c r="C41" s="20" t="s">
         <v>7</v>
       </c>
@@ -58487,10 +58501,10 @@
       </c>
     </row>
     <row r="42" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A42" s="45" t="s">
+      <c r="A42" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="B42" s="46"/>
+      <c r="B42" s="63"/>
       <c r="C42" s="20" t="s">
         <v>7</v>
       </c>
@@ -58571,10 +58585,10 @@
       </c>
     </row>
     <row r="43" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A43" s="45" t="s">
+      <c r="A43" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="B43" s="46"/>
+      <c r="B43" s="63"/>
       <c r="C43" s="20" t="s">
         <v>7</v>
       </c>
@@ -58655,10 +58669,10 @@
       </c>
     </row>
     <row r="44" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A44" s="45" t="s">
+      <c r="A44" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="B44" s="46"/>
+      <c r="B44" s="63"/>
       <c r="C44" s="20" t="s">
         <v>7</v>
       </c>
@@ -58739,10 +58753,10 @@
       </c>
     </row>
     <row r="45" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A45" s="45" t="s">
+      <c r="A45" s="62" t="s">
         <v>149</v>
       </c>
-      <c r="B45" s="46"/>
+      <c r="B45" s="63"/>
       <c r="C45" s="20" t="s">
         <v>7</v>
       </c>
@@ -58823,7 +58837,7 @@
       </c>
     </row>
     <row r="46" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A46" s="47" t="s">
+      <c r="A46" s="66" t="s">
         <v>150</v>
       </c>
       <c r="B46" s="23" t="s">
@@ -58909,7 +58923,7 @@
       </c>
     </row>
     <row r="47" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A47" s="48"/>
+      <c r="A47" s="67"/>
       <c r="B47" s="23" t="s">
         <v>151</v>
       </c>
@@ -58999,36 +59013,11 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:AB3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:AB4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:AB6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:AB7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:A47"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A30:B30"/>
@@ -59042,11 +59031,36 @@
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:AB6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:AB7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:AB3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:AB4"/>
+    <mergeCell ref="A5:C5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;ShowOnWeb=true&amp;Lang=en"/>
@@ -59091,72 +59105,72 @@
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="88" t="s">
+      <c r="B3" s="69"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="71" t="s">
         <v>160</v>
       </c>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="89"/>
-      <c r="S3" s="89"/>
-      <c r="T3" s="89"/>
-      <c r="U3" s="89"/>
-      <c r="V3" s="89"/>
-      <c r="W3" s="89"/>
-      <c r="X3" s="89"/>
-      <c r="Y3" s="89"/>
-      <c r="Z3" s="89"/>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="90"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="72"/>
+      <c r="T3" s="72"/>
+      <c r="U3" s="72"/>
+      <c r="V3" s="72"/>
+      <c r="W3" s="72"/>
+      <c r="X3" s="72"/>
+      <c r="Y3" s="72"/>
+      <c r="Z3" s="72"/>
+      <c r="AA3" s="72"/>
+      <c r="AB3" s="73"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="88" t="s">
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="71" t="s">
         <v>175</v>
       </c>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="89"/>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="89"/>
-      <c r="S4" s="89"/>
-      <c r="T4" s="89"/>
-      <c r="U4" s="89"/>
-      <c r="V4" s="89"/>
-      <c r="W4" s="89"/>
-      <c r="X4" s="89"/>
-      <c r="Y4" s="89"/>
-      <c r="Z4" s="89"/>
-      <c r="AA4" s="89"/>
-      <c r="AB4" s="90"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="72"/>
+      <c r="U4" s="72"/>
+      <c r="V4" s="72"/>
+      <c r="W4" s="72"/>
+      <c r="X4" s="72"/>
+      <c r="Y4" s="72"/>
+      <c r="Z4" s="72"/>
+      <c r="AA4" s="72"/>
+      <c r="AB4" s="73"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A5" s="74" t="s">
@@ -59393,10 +59407,10 @@
       </c>
     </row>
     <row r="9" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="B9" s="69"/>
+      <c r="B9" s="86"/>
       <c r="C9" s="9" t="s">
         <v>7</v>
       </c>
@@ -59477,10 +59491,10 @@
       </c>
     </row>
     <row r="10" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="B10" s="69"/>
+      <c r="B10" s="86"/>
       <c r="C10" s="9" t="s">
         <v>7</v>
       </c>
@@ -59561,10 +59575,10 @@
       </c>
     </row>
     <row r="11" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="85" t="s">
         <v>119</v>
       </c>
-      <c r="B11" s="69"/>
+      <c r="B11" s="86"/>
       <c r="C11" s="9" t="s">
         <v>7</v>
       </c>
@@ -59645,10 +59659,10 @@
       </c>
     </row>
     <row r="12" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="85" t="s">
         <v>120</v>
       </c>
-      <c r="B12" s="69"/>
+      <c r="B12" s="86"/>
       <c r="C12" s="9" t="s">
         <v>7</v>
       </c>
@@ -59729,10 +59743,10 @@
       </c>
     </row>
     <row r="13" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="B13" s="69"/>
+      <c r="B13" s="86"/>
       <c r="C13" s="9" t="s">
         <v>7</v>
       </c>
@@ -59813,10 +59827,10 @@
       </c>
     </row>
     <row r="14" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A14" s="68" t="s">
+      <c r="A14" s="85" t="s">
         <v>122</v>
       </c>
-      <c r="B14" s="69"/>
+      <c r="B14" s="86"/>
       <c r="C14" s="9" t="s">
         <v>7</v>
       </c>
@@ -59897,10 +59911,10 @@
       </c>
     </row>
     <row r="15" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A15" s="68" t="s">
+      <c r="A15" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="B15" s="69"/>
+      <c r="B15" s="86"/>
       <c r="C15" s="9" t="s">
         <v>7</v>
       </c>
@@ -59981,10 +59995,10 @@
       </c>
     </row>
     <row r="16" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="85" t="s">
         <v>124</v>
       </c>
-      <c r="B16" s="69"/>
+      <c r="B16" s="86"/>
       <c r="C16" s="9" t="s">
         <v>7</v>
       </c>
@@ -60065,10 +60079,10 @@
       </c>
     </row>
     <row r="17" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A17" s="68" t="s">
+      <c r="A17" s="85" t="s">
         <v>125</v>
       </c>
-      <c r="B17" s="69"/>
+      <c r="B17" s="86"/>
       <c r="C17" s="9" t="s">
         <v>7</v>
       </c>
@@ -60149,10 +60163,10 @@
       </c>
     </row>
     <row r="18" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A18" s="68" t="s">
+      <c r="A18" s="85" t="s">
         <v>126</v>
       </c>
-      <c r="B18" s="69"/>
+      <c r="B18" s="86"/>
       <c r="C18" s="9" t="s">
         <v>7</v>
       </c>
@@ -60233,10 +60247,10 @@
       </c>
     </row>
     <row r="19" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A19" s="72" t="s">
+      <c r="A19" s="87" t="s">
         <v>127</v>
       </c>
-      <c r="B19" s="73"/>
+      <c r="B19" s="88"/>
       <c r="C19" s="9" t="s">
         <v>7</v>
       </c>
@@ -60317,10 +60331,10 @@
       </c>
     </row>
     <row r="20" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A20" s="68" t="s">
+      <c r="A20" s="85" t="s">
         <v>128</v>
       </c>
-      <c r="B20" s="69"/>
+      <c r="B20" s="86"/>
       <c r="C20" s="9" t="s">
         <v>7</v>
       </c>
@@ -60401,10 +60415,10 @@
       </c>
     </row>
     <row r="21" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A21" s="68" t="s">
+      <c r="A21" s="85" t="s">
         <v>129</v>
       </c>
-      <c r="B21" s="69"/>
+      <c r="B21" s="86"/>
       <c r="C21" s="9" t="s">
         <v>7</v>
       </c>
@@ -60485,10 +60499,10 @@
       </c>
     </row>
     <row r="22" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A22" s="68" t="s">
+      <c r="A22" s="85" t="s">
         <v>130</v>
       </c>
-      <c r="B22" s="69"/>
+      <c r="B22" s="86"/>
       <c r="C22" s="9" t="s">
         <v>7</v>
       </c>
@@ -60569,10 +60583,10 @@
       </c>
     </row>
     <row r="23" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A23" s="72" t="s">
+      <c r="A23" s="87" t="s">
         <v>131</v>
       </c>
-      <c r="B23" s="73"/>
+      <c r="B23" s="88"/>
       <c r="C23" s="9" t="s">
         <v>7</v>
       </c>
@@ -60653,10 +60667,10 @@
       </c>
     </row>
     <row r="24" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A24" s="72" t="s">
+      <c r="A24" s="87" t="s">
         <v>132</v>
       </c>
-      <c r="B24" s="73"/>
+      <c r="B24" s="88"/>
       <c r="C24" s="9" t="s">
         <v>7</v>
       </c>
@@ -60737,10 +60751,10 @@
       </c>
     </row>
     <row r="25" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A25" s="68" t="s">
+      <c r="A25" s="85" t="s">
         <v>133</v>
       </c>
-      <c r="B25" s="69"/>
+      <c r="B25" s="86"/>
       <c r="C25" s="9" t="s">
         <v>7</v>
       </c>
@@ -60821,10 +60835,10 @@
       </c>
     </row>
     <row r="26" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A26" s="68" t="s">
+      <c r="A26" s="85" t="s">
         <v>159</v>
       </c>
-      <c r="B26" s="69"/>
+      <c r="B26" s="86"/>
       <c r="C26" s="9" t="s">
         <v>7</v>
       </c>
@@ -60905,10 +60919,10 @@
       </c>
     </row>
     <row r="27" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A27" s="68" t="s">
+      <c r="A27" s="85" t="s">
         <v>155</v>
       </c>
-      <c r="B27" s="69"/>
+      <c r="B27" s="86"/>
       <c r="C27" s="9" t="s">
         <v>174</v>
       </c>
@@ -60989,10 +61003,10 @@
       </c>
     </row>
     <row r="28" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A28" s="68" t="s">
+      <c r="A28" s="85" t="s">
         <v>134</v>
       </c>
-      <c r="B28" s="69"/>
+      <c r="B28" s="86"/>
       <c r="C28" s="9" t="s">
         <v>7</v>
       </c>
@@ -61073,10 +61087,10 @@
       </c>
     </row>
     <row r="29" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A29" s="68" t="s">
+      <c r="A29" s="85" t="s">
         <v>135</v>
       </c>
-      <c r="B29" s="69"/>
+      <c r="B29" s="86"/>
       <c r="C29" s="9" t="s">
         <v>7</v>
       </c>
@@ -61157,10 +61171,10 @@
       </c>
     </row>
     <row r="30" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A30" s="68" t="s">
+      <c r="A30" s="85" t="s">
         <v>136</v>
       </c>
-      <c r="B30" s="69"/>
+      <c r="B30" s="86"/>
       <c r="C30" s="9" t="s">
         <v>7</v>
       </c>
@@ -61241,10 +61255,10 @@
       </c>
     </row>
     <row r="31" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A31" s="68" t="s">
+      <c r="A31" s="85" t="s">
         <v>137</v>
       </c>
-      <c r="B31" s="69"/>
+      <c r="B31" s="86"/>
       <c r="C31" s="9" t="s">
         <v>7</v>
       </c>
@@ -61325,10 +61339,10 @@
       </c>
     </row>
     <row r="32" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A32" s="68" t="s">
+      <c r="A32" s="85" t="s">
         <v>138</v>
       </c>
-      <c r="B32" s="69"/>
+      <c r="B32" s="86"/>
       <c r="C32" s="9" t="s">
         <v>7</v>
       </c>
@@ -61409,10 +61423,10 @@
       </c>
     </row>
     <row r="33" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A33" s="68" t="s">
+      <c r="A33" s="85" t="s">
         <v>139</v>
       </c>
-      <c r="B33" s="69"/>
+      <c r="B33" s="86"/>
       <c r="C33" s="9" t="s">
         <v>7</v>
       </c>
@@ -61493,10 +61507,10 @@
       </c>
     </row>
     <row r="34" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A34" s="68" t="s">
+      <c r="A34" s="85" t="s">
         <v>140</v>
       </c>
-      <c r="B34" s="69"/>
+      <c r="B34" s="86"/>
       <c r="C34" s="9" t="s">
         <v>7</v>
       </c>
@@ -61577,10 +61591,10 @@
       </c>
     </row>
     <row r="35" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A35" s="68" t="s">
+      <c r="A35" s="85" t="s">
         <v>141</v>
       </c>
-      <c r="B35" s="69"/>
+      <c r="B35" s="86"/>
       <c r="C35" s="9" t="s">
         <v>7</v>
       </c>
@@ -61661,10 +61675,10 @@
       </c>
     </row>
     <row r="36" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A36" s="68" t="s">
+      <c r="A36" s="85" t="s">
         <v>142</v>
       </c>
-      <c r="B36" s="69"/>
+      <c r="B36" s="86"/>
       <c r="C36" s="9" t="s">
         <v>7</v>
       </c>
@@ -61745,10 +61759,10 @@
       </c>
     </row>
     <row r="37" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A37" s="68" t="s">
+      <c r="A37" s="85" t="s">
         <v>143</v>
       </c>
-      <c r="B37" s="69"/>
+      <c r="B37" s="86"/>
       <c r="C37" s="9" t="s">
         <v>7</v>
       </c>
@@ -61829,10 +61843,10 @@
       </c>
     </row>
     <row r="38" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A38" s="68" t="s">
+      <c r="A38" s="85" t="s">
         <v>144</v>
       </c>
-      <c r="B38" s="69"/>
+      <c r="B38" s="86"/>
       <c r="C38" s="9" t="s">
         <v>7</v>
       </c>
@@ -61913,10 +61927,10 @@
       </c>
     </row>
     <row r="39" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A39" s="68" t="s">
+      <c r="A39" s="85" t="s">
         <v>145</v>
       </c>
-      <c r="B39" s="69"/>
+      <c r="B39" s="86"/>
       <c r="C39" s="9" t="s">
         <v>7</v>
       </c>
@@ -61997,10 +62011,10 @@
       </c>
     </row>
     <row r="40" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A40" s="68" t="s">
+      <c r="A40" s="85" t="s">
         <v>146</v>
       </c>
-      <c r="B40" s="69"/>
+      <c r="B40" s="86"/>
       <c r="C40" s="9" t="s">
         <v>7</v>
       </c>
@@ -62081,10 +62095,10 @@
       </c>
     </row>
     <row r="41" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A41" s="68" t="s">
+      <c r="A41" s="85" t="s">
         <v>152</v>
       </c>
-      <c r="B41" s="69"/>
+      <c r="B41" s="86"/>
       <c r="C41" s="9" t="s">
         <v>7</v>
       </c>
@@ -62165,10 +62179,10 @@
       </c>
     </row>
     <row r="42" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A42" s="68" t="s">
+      <c r="A42" s="85" t="s">
         <v>147</v>
       </c>
-      <c r="B42" s="69"/>
+      <c r="B42" s="86"/>
       <c r="C42" s="9" t="s">
         <v>7</v>
       </c>
@@ -62249,10 +62263,10 @@
       </c>
     </row>
     <row r="43" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A43" s="68" t="s">
+      <c r="A43" s="85" t="s">
         <v>154</v>
       </c>
-      <c r="B43" s="69"/>
+      <c r="B43" s="86"/>
       <c r="C43" s="9" t="s">
         <v>7</v>
       </c>
@@ -62333,10 +62347,10 @@
       </c>
     </row>
     <row r="44" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A44" s="68" t="s">
+      <c r="A44" s="85" t="s">
         <v>148</v>
       </c>
-      <c r="B44" s="69"/>
+      <c r="B44" s="86"/>
       <c r="C44" s="9" t="s">
         <v>7</v>
       </c>
@@ -62417,10 +62431,10 @@
       </c>
     </row>
     <row r="45" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A45" s="68" t="s">
+      <c r="A45" s="85" t="s">
         <v>149</v>
       </c>
-      <c r="B45" s="69"/>
+      <c r="B45" s="86"/>
       <c r="C45" s="9" t="s">
         <v>7</v>
       </c>
@@ -62501,7 +62515,7 @@
       </c>
     </row>
     <row r="46" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A46" s="70" t="s">
+      <c r="A46" s="89" t="s">
         <v>150</v>
       </c>
       <c r="B46" s="10" t="s">
@@ -62587,7 +62601,7 @@
       </c>
     </row>
     <row r="47" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A47" s="71"/>
+      <c r="A47" s="90"/>
       <c r="B47" s="10" t="s">
         <v>151</v>
       </c>
@@ -62677,36 +62691,11 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:AB3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:AB4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:AB6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:AB7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:A47"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A30:B30"/>
@@ -62720,11 +62709,36 @@
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:AB6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:AB7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:AB3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:AB4"/>
+    <mergeCell ref="A5:C5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;ShowOnWeb=true&amp;Lang=en"/>
@@ -62770,72 +62784,72 @@
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="88" t="s">
+      <c r="B3" s="69"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="71" t="s">
         <v>160</v>
       </c>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="89"/>
-      <c r="S3" s="89"/>
-      <c r="T3" s="89"/>
-      <c r="U3" s="89"/>
-      <c r="V3" s="89"/>
-      <c r="W3" s="89"/>
-      <c r="X3" s="89"/>
-      <c r="Y3" s="89"/>
-      <c r="Z3" s="89"/>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="90"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="72"/>
+      <c r="T3" s="72"/>
+      <c r="U3" s="72"/>
+      <c r="V3" s="72"/>
+      <c r="W3" s="72"/>
+      <c r="X3" s="72"/>
+      <c r="Y3" s="72"/>
+      <c r="Z3" s="72"/>
+      <c r="AA3" s="72"/>
+      <c r="AB3" s="73"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="88" t="s">
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="71" t="s">
         <v>179</v>
       </c>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="89"/>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="89"/>
-      <c r="S4" s="89"/>
-      <c r="T4" s="89"/>
-      <c r="U4" s="89"/>
-      <c r="V4" s="89"/>
-      <c r="W4" s="89"/>
-      <c r="X4" s="89"/>
-      <c r="Y4" s="89"/>
-      <c r="Z4" s="89"/>
-      <c r="AA4" s="89"/>
-      <c r="AB4" s="90"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="72"/>
+      <c r="U4" s="72"/>
+      <c r="V4" s="72"/>
+      <c r="W4" s="72"/>
+      <c r="X4" s="72"/>
+      <c r="Y4" s="72"/>
+      <c r="Z4" s="72"/>
+      <c r="AA4" s="72"/>
+      <c r="AB4" s="73"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A5" s="74" t="s">
@@ -63072,10 +63086,10 @@
       </c>
     </row>
     <row r="9" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="B9" s="69"/>
+      <c r="B9" s="86"/>
       <c r="C9" s="9" t="s">
         <v>7</v>
       </c>
@@ -63156,10 +63170,10 @@
       </c>
     </row>
     <row r="10" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="B10" s="69"/>
+      <c r="B10" s="86"/>
       <c r="C10" s="9" t="s">
         <v>7</v>
       </c>
@@ -63240,10 +63254,10 @@
       </c>
     </row>
     <row r="11" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="85" t="s">
         <v>119</v>
       </c>
-      <c r="B11" s="69"/>
+      <c r="B11" s="86"/>
       <c r="C11" s="9" t="s">
         <v>7</v>
       </c>
@@ -63324,10 +63338,10 @@
       </c>
     </row>
     <row r="12" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="85" t="s">
         <v>120</v>
       </c>
-      <c r="B12" s="69"/>
+      <c r="B12" s="86"/>
       <c r="C12" s="9" t="s">
         <v>7</v>
       </c>
@@ -63408,10 +63422,10 @@
       </c>
     </row>
     <row r="13" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="B13" s="69"/>
+      <c r="B13" s="86"/>
       <c r="C13" s="9" t="s">
         <v>7</v>
       </c>
@@ -63492,10 +63506,10 @@
       </c>
     </row>
     <row r="14" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A14" s="68" t="s">
+      <c r="A14" s="85" t="s">
         <v>122</v>
       </c>
-      <c r="B14" s="69"/>
+      <c r="B14" s="86"/>
       <c r="C14" s="9" t="s">
         <v>7</v>
       </c>
@@ -63576,10 +63590,10 @@
       </c>
     </row>
     <row r="15" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A15" s="68" t="s">
+      <c r="A15" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="B15" s="69"/>
+      <c r="B15" s="86"/>
       <c r="C15" s="9" t="s">
         <v>7</v>
       </c>
@@ -63660,10 +63674,10 @@
       </c>
     </row>
     <row r="16" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="85" t="s">
         <v>124</v>
       </c>
-      <c r="B16" s="69"/>
+      <c r="B16" s="86"/>
       <c r="C16" s="9" t="s">
         <v>7</v>
       </c>
@@ -63744,10 +63758,10 @@
       </c>
     </row>
     <row r="17" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A17" s="68" t="s">
+      <c r="A17" s="85" t="s">
         <v>125</v>
       </c>
-      <c r="B17" s="69"/>
+      <c r="B17" s="86"/>
       <c r="C17" s="9" t="s">
         <v>7</v>
       </c>
@@ -63828,10 +63842,10 @@
       </c>
     </row>
     <row r="18" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A18" s="68" t="s">
+      <c r="A18" s="85" t="s">
         <v>126</v>
       </c>
-      <c r="B18" s="69"/>
+      <c r="B18" s="86"/>
       <c r="C18" s="9" t="s">
         <v>7</v>
       </c>
@@ -63912,10 +63926,10 @@
       </c>
     </row>
     <row r="19" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A19" s="72" t="s">
+      <c r="A19" s="87" t="s">
         <v>127</v>
       </c>
-      <c r="B19" s="73"/>
+      <c r="B19" s="88"/>
       <c r="C19" s="9" t="s">
         <v>7</v>
       </c>
@@ -63996,10 +64010,10 @@
       </c>
     </row>
     <row r="20" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A20" s="68" t="s">
+      <c r="A20" s="85" t="s">
         <v>128</v>
       </c>
-      <c r="B20" s="69"/>
+      <c r="B20" s="86"/>
       <c r="C20" s="9" t="s">
         <v>7</v>
       </c>
@@ -64080,10 +64094,10 @@
       </c>
     </row>
     <row r="21" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A21" s="68" t="s">
+      <c r="A21" s="85" t="s">
         <v>129</v>
       </c>
-      <c r="B21" s="69"/>
+      <c r="B21" s="86"/>
       <c r="C21" s="9" t="s">
         <v>7</v>
       </c>
@@ -64164,10 +64178,10 @@
       </c>
     </row>
     <row r="22" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A22" s="68" t="s">
+      <c r="A22" s="85" t="s">
         <v>130</v>
       </c>
-      <c r="B22" s="69"/>
+      <c r="B22" s="86"/>
       <c r="C22" s="9" t="s">
         <v>7</v>
       </c>
@@ -64248,10 +64262,10 @@
       </c>
     </row>
     <row r="23" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A23" s="72" t="s">
+      <c r="A23" s="87" t="s">
         <v>131</v>
       </c>
-      <c r="B23" s="73"/>
+      <c r="B23" s="88"/>
       <c r="C23" s="9" t="s">
         <v>7</v>
       </c>
@@ -64332,10 +64346,10 @@
       </c>
     </row>
     <row r="24" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A24" s="72" t="s">
+      <c r="A24" s="87" t="s">
         <v>132</v>
       </c>
-      <c r="B24" s="73"/>
+      <c r="B24" s="88"/>
       <c r="C24" s="9" t="s">
         <v>7</v>
       </c>
@@ -64416,10 +64430,10 @@
       </c>
     </row>
     <row r="25" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A25" s="68" t="s">
+      <c r="A25" s="85" t="s">
         <v>133</v>
       </c>
-      <c r="B25" s="69"/>
+      <c r="B25" s="86"/>
       <c r="C25" s="9" t="s">
         <v>7</v>
       </c>
@@ -64500,10 +64514,10 @@
       </c>
     </row>
     <row r="26" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A26" s="68" t="s">
+      <c r="A26" s="85" t="s">
         <v>159</v>
       </c>
-      <c r="B26" s="69"/>
+      <c r="B26" s="86"/>
       <c r="C26" s="9" t="s">
         <v>7</v>
       </c>
@@ -64584,10 +64598,10 @@
       </c>
     </row>
     <row r="27" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A27" s="68" t="s">
+      <c r="A27" s="85" t="s">
         <v>155</v>
       </c>
-      <c r="B27" s="69"/>
+      <c r="B27" s="86"/>
       <c r="C27" s="9" t="s">
         <v>174</v>
       </c>
@@ -64668,10 +64682,10 @@
       </c>
     </row>
     <row r="28" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A28" s="68" t="s">
+      <c r="A28" s="85" t="s">
         <v>134</v>
       </c>
-      <c r="B28" s="69"/>
+      <c r="B28" s="86"/>
       <c r="C28" s="9" t="s">
         <v>7</v>
       </c>
@@ -64752,10 +64766,10 @@
       </c>
     </row>
     <row r="29" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A29" s="68" t="s">
+      <c r="A29" s="85" t="s">
         <v>135</v>
       </c>
-      <c r="B29" s="69"/>
+      <c r="B29" s="86"/>
       <c r="C29" s="9" t="s">
         <v>7</v>
       </c>
@@ -64836,10 +64850,10 @@
       </c>
     </row>
     <row r="30" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A30" s="68" t="s">
+      <c r="A30" s="85" t="s">
         <v>136</v>
       </c>
-      <c r="B30" s="69"/>
+      <c r="B30" s="86"/>
       <c r="C30" s="9" t="s">
         <v>7</v>
       </c>
@@ -64920,10 +64934,10 @@
       </c>
     </row>
     <row r="31" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A31" s="68" t="s">
+      <c r="A31" s="85" t="s">
         <v>137</v>
       </c>
-      <c r="B31" s="69"/>
+      <c r="B31" s="86"/>
       <c r="C31" s="9" t="s">
         <v>7</v>
       </c>
@@ -65004,10 +65018,10 @@
       </c>
     </row>
     <row r="32" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A32" s="68" t="s">
+      <c r="A32" s="85" t="s">
         <v>138</v>
       </c>
-      <c r="B32" s="69"/>
+      <c r="B32" s="86"/>
       <c r="C32" s="9" t="s">
         <v>7</v>
       </c>
@@ -65088,10 +65102,10 @@
       </c>
     </row>
     <row r="33" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A33" s="68" t="s">
+      <c r="A33" s="85" t="s">
         <v>139</v>
       </c>
-      <c r="B33" s="69"/>
+      <c r="B33" s="86"/>
       <c r="C33" s="9" t="s">
         <v>7</v>
       </c>
@@ -65172,10 +65186,10 @@
       </c>
     </row>
     <row r="34" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A34" s="68" t="s">
+      <c r="A34" s="85" t="s">
         <v>140</v>
       </c>
-      <c r="B34" s="69"/>
+      <c r="B34" s="86"/>
       <c r="C34" s="9" t="s">
         <v>7</v>
       </c>
@@ -65256,10 +65270,10 @@
       </c>
     </row>
     <row r="35" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A35" s="68" t="s">
+      <c r="A35" s="85" t="s">
         <v>141</v>
       </c>
-      <c r="B35" s="69"/>
+      <c r="B35" s="86"/>
       <c r="C35" s="9" t="s">
         <v>7</v>
       </c>
@@ -65340,10 +65354,10 @@
       </c>
     </row>
     <row r="36" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A36" s="68" t="s">
+      <c r="A36" s="85" t="s">
         <v>142</v>
       </c>
-      <c r="B36" s="69"/>
+      <c r="B36" s="86"/>
       <c r="C36" s="9" t="s">
         <v>7</v>
       </c>
@@ -65424,10 +65438,10 @@
       </c>
     </row>
     <row r="37" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A37" s="68" t="s">
+      <c r="A37" s="85" t="s">
         <v>143</v>
       </c>
-      <c r="B37" s="69"/>
+      <c r="B37" s="86"/>
       <c r="C37" s="9" t="s">
         <v>7</v>
       </c>
@@ -65508,10 +65522,10 @@
       </c>
     </row>
     <row r="38" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A38" s="68" t="s">
+      <c r="A38" s="85" t="s">
         <v>144</v>
       </c>
-      <c r="B38" s="69"/>
+      <c r="B38" s="86"/>
       <c r="C38" s="9" t="s">
         <v>7</v>
       </c>
@@ -65592,10 +65606,10 @@
       </c>
     </row>
     <row r="39" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A39" s="68" t="s">
+      <c r="A39" s="85" t="s">
         <v>145</v>
       </c>
-      <c r="B39" s="69"/>
+      <c r="B39" s="86"/>
       <c r="C39" s="9" t="s">
         <v>7</v>
       </c>
@@ -65676,10 +65690,10 @@
       </c>
     </row>
     <row r="40" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A40" s="68" t="s">
+      <c r="A40" s="85" t="s">
         <v>146</v>
       </c>
-      <c r="B40" s="69"/>
+      <c r="B40" s="86"/>
       <c r="C40" s="9" t="s">
         <v>7</v>
       </c>
@@ -65760,10 +65774,10 @@
       </c>
     </row>
     <row r="41" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A41" s="68" t="s">
+      <c r="A41" s="85" t="s">
         <v>152</v>
       </c>
-      <c r="B41" s="69"/>
+      <c r="B41" s="86"/>
       <c r="C41" s="9" t="s">
         <v>7</v>
       </c>
@@ -65844,10 +65858,10 @@
       </c>
     </row>
     <row r="42" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A42" s="68" t="s">
+      <c r="A42" s="85" t="s">
         <v>147</v>
       </c>
-      <c r="B42" s="69"/>
+      <c r="B42" s="86"/>
       <c r="C42" s="9" t="s">
         <v>7</v>
       </c>
@@ -65928,10 +65942,10 @@
       </c>
     </row>
     <row r="43" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A43" s="68" t="s">
+      <c r="A43" s="85" t="s">
         <v>154</v>
       </c>
-      <c r="B43" s="69"/>
+      <c r="B43" s="86"/>
       <c r="C43" s="9" t="s">
         <v>7</v>
       </c>
@@ -66012,10 +66026,10 @@
       </c>
     </row>
     <row r="44" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A44" s="68" t="s">
+      <c r="A44" s="85" t="s">
         <v>148</v>
       </c>
-      <c r="B44" s="69"/>
+      <c r="B44" s="86"/>
       <c r="C44" s="9" t="s">
         <v>7</v>
       </c>
@@ -66096,10 +66110,10 @@
       </c>
     </row>
     <row r="45" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A45" s="68" t="s">
+      <c r="A45" s="85" t="s">
         <v>149</v>
       </c>
-      <c r="B45" s="69"/>
+      <c r="B45" s="86"/>
       <c r="C45" s="9" t="s">
         <v>7</v>
       </c>
@@ -66180,7 +66194,7 @@
       </c>
     </row>
     <row r="46" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A46" s="70" t="s">
+      <c r="A46" s="89" t="s">
         <v>150</v>
       </c>
       <c r="B46" s="10" t="s">
@@ -66266,7 +66280,7 @@
       </c>
     </row>
     <row r="47" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A47" s="71"/>
+      <c r="A47" s="90"/>
       <c r="B47" s="10" t="s">
         <v>151</v>
       </c>
@@ -66356,36 +66370,11 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:AB3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:AB4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:AB6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:AB7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:A47"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A30:B30"/>
@@ -66399,11 +66388,36 @@
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:AB6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:AB7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:AB3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:AB4"/>
+    <mergeCell ref="A5:C5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;ShowOnWeb=true&amp;Lang=en"/>
@@ -66449,72 +66463,72 @@
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="88" t="s">
+      <c r="B3" s="69"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="71" t="s">
         <v>160</v>
       </c>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="89"/>
-      <c r="S3" s="89"/>
-      <c r="T3" s="89"/>
-      <c r="U3" s="89"/>
-      <c r="V3" s="89"/>
-      <c r="W3" s="89"/>
-      <c r="X3" s="89"/>
-      <c r="Y3" s="89"/>
-      <c r="Z3" s="89"/>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="90"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="72"/>
+      <c r="T3" s="72"/>
+      <c r="U3" s="72"/>
+      <c r="V3" s="72"/>
+      <c r="W3" s="72"/>
+      <c r="X3" s="72"/>
+      <c r="Y3" s="72"/>
+      <c r="Z3" s="72"/>
+      <c r="AA3" s="72"/>
+      <c r="AB3" s="73"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="88" t="s">
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="71" t="s">
         <v>183</v>
       </c>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="89"/>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="89"/>
-      <c r="S4" s="89"/>
-      <c r="T4" s="89"/>
-      <c r="U4" s="89"/>
-      <c r="V4" s="89"/>
-      <c r="W4" s="89"/>
-      <c r="X4" s="89"/>
-      <c r="Y4" s="89"/>
-      <c r="Z4" s="89"/>
-      <c r="AA4" s="89"/>
-      <c r="AB4" s="90"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="72"/>
+      <c r="U4" s="72"/>
+      <c r="V4" s="72"/>
+      <c r="W4" s="72"/>
+      <c r="X4" s="72"/>
+      <c r="Y4" s="72"/>
+      <c r="Z4" s="72"/>
+      <c r="AA4" s="72"/>
+      <c r="AB4" s="73"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A5" s="74" t="s">
@@ -66751,10 +66765,10 @@
       </c>
     </row>
     <row r="9" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="B9" s="69"/>
+      <c r="B9" s="86"/>
       <c r="C9" s="9" t="s">
         <v>7</v>
       </c>
@@ -66835,10 +66849,10 @@
       </c>
     </row>
     <row r="10" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="B10" s="69"/>
+      <c r="B10" s="86"/>
       <c r="C10" s="9" t="s">
         <v>7</v>
       </c>
@@ -66919,10 +66933,10 @@
       </c>
     </row>
     <row r="11" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="85" t="s">
         <v>119</v>
       </c>
-      <c r="B11" s="69"/>
+      <c r="B11" s="86"/>
       <c r="C11" s="9" t="s">
         <v>7</v>
       </c>
@@ -67003,10 +67017,10 @@
       </c>
     </row>
     <row r="12" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="85" t="s">
         <v>120</v>
       </c>
-      <c r="B12" s="69"/>
+      <c r="B12" s="86"/>
       <c r="C12" s="9" t="s">
         <v>7</v>
       </c>
@@ -67087,10 +67101,10 @@
       </c>
     </row>
     <row r="13" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="B13" s="69"/>
+      <c r="B13" s="86"/>
       <c r="C13" s="9" t="s">
         <v>7</v>
       </c>
@@ -67171,10 +67185,10 @@
       </c>
     </row>
     <row r="14" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A14" s="68" t="s">
+      <c r="A14" s="85" t="s">
         <v>122</v>
       </c>
-      <c r="B14" s="69"/>
+      <c r="B14" s="86"/>
       <c r="C14" s="9" t="s">
         <v>7</v>
       </c>
@@ -67255,10 +67269,10 @@
       </c>
     </row>
     <row r="15" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A15" s="68" t="s">
+      <c r="A15" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="B15" s="69"/>
+      <c r="B15" s="86"/>
       <c r="C15" s="9" t="s">
         <v>7</v>
       </c>
@@ -67339,10 +67353,10 @@
       </c>
     </row>
     <row r="16" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="85" t="s">
         <v>124</v>
       </c>
-      <c r="B16" s="69"/>
+      <c r="B16" s="86"/>
       <c r="C16" s="9" t="s">
         <v>7</v>
       </c>
@@ -67423,10 +67437,10 @@
       </c>
     </row>
     <row r="17" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A17" s="68" t="s">
+      <c r="A17" s="85" t="s">
         <v>125</v>
       </c>
-      <c r="B17" s="69"/>
+      <c r="B17" s="86"/>
       <c r="C17" s="9" t="s">
         <v>7</v>
       </c>
@@ -67507,10 +67521,10 @@
       </c>
     </row>
     <row r="18" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A18" s="68" t="s">
+      <c r="A18" s="85" t="s">
         <v>126</v>
       </c>
-      <c r="B18" s="69"/>
+      <c r="B18" s="86"/>
       <c r="C18" s="9" t="s">
         <v>7</v>
       </c>
@@ -67591,10 +67605,10 @@
       </c>
     </row>
     <row r="19" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A19" s="72" t="s">
+      <c r="A19" s="87" t="s">
         <v>127</v>
       </c>
-      <c r="B19" s="73"/>
+      <c r="B19" s="88"/>
       <c r="C19" s="9" t="s">
         <v>7</v>
       </c>
@@ -67675,10 +67689,10 @@
       </c>
     </row>
     <row r="20" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A20" s="68" t="s">
+      <c r="A20" s="85" t="s">
         <v>128</v>
       </c>
-      <c r="B20" s="69"/>
+      <c r="B20" s="86"/>
       <c r="C20" s="9" t="s">
         <v>7</v>
       </c>
@@ -67759,10 +67773,10 @@
       </c>
     </row>
     <row r="21" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A21" s="68" t="s">
+      <c r="A21" s="85" t="s">
         <v>129</v>
       </c>
-      <c r="B21" s="69"/>
+      <c r="B21" s="86"/>
       <c r="C21" s="9" t="s">
         <v>7</v>
       </c>
@@ -67843,10 +67857,10 @@
       </c>
     </row>
     <row r="22" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A22" s="68" t="s">
+      <c r="A22" s="85" t="s">
         <v>130</v>
       </c>
-      <c r="B22" s="69"/>
+      <c r="B22" s="86"/>
       <c r="C22" s="9" t="s">
         <v>7</v>
       </c>
@@ -67927,10 +67941,10 @@
       </c>
     </row>
     <row r="23" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A23" s="72" t="s">
+      <c r="A23" s="87" t="s">
         <v>131</v>
       </c>
-      <c r="B23" s="73"/>
+      <c r="B23" s="88"/>
       <c r="C23" s="9" t="s">
         <v>7</v>
       </c>
@@ -68011,10 +68025,10 @@
       </c>
     </row>
     <row r="24" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A24" s="72" t="s">
+      <c r="A24" s="87" t="s">
         <v>132</v>
       </c>
-      <c r="B24" s="73"/>
+      <c r="B24" s="88"/>
       <c r="C24" s="9" t="s">
         <v>7</v>
       </c>
@@ -68095,10 +68109,10 @@
       </c>
     </row>
     <row r="25" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A25" s="68" t="s">
+      <c r="A25" s="85" t="s">
         <v>133</v>
       </c>
-      <c r="B25" s="69"/>
+      <c r="B25" s="86"/>
       <c r="C25" s="9" t="s">
         <v>7</v>
       </c>
@@ -68179,10 +68193,10 @@
       </c>
     </row>
     <row r="26" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A26" s="68" t="s">
+      <c r="A26" s="85" t="s">
         <v>159</v>
       </c>
-      <c r="B26" s="69"/>
+      <c r="B26" s="86"/>
       <c r="C26" s="9" t="s">
         <v>7</v>
       </c>
@@ -68263,10 +68277,10 @@
       </c>
     </row>
     <row r="27" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A27" s="68" t="s">
+      <c r="A27" s="85" t="s">
         <v>155</v>
       </c>
-      <c r="B27" s="69"/>
+      <c r="B27" s="86"/>
       <c r="C27" s="9" t="s">
         <v>7</v>
       </c>
@@ -68347,10 +68361,10 @@
       </c>
     </row>
     <row r="28" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A28" s="68" t="s">
+      <c r="A28" s="85" t="s">
         <v>134</v>
       </c>
-      <c r="B28" s="69"/>
+      <c r="B28" s="86"/>
       <c r="C28" s="9" t="s">
         <v>7</v>
       </c>
@@ -68431,10 +68445,10 @@
       </c>
     </row>
     <row r="29" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A29" s="68" t="s">
+      <c r="A29" s="85" t="s">
         <v>135</v>
       </c>
-      <c r="B29" s="69"/>
+      <c r="B29" s="86"/>
       <c r="C29" s="9" t="s">
         <v>7</v>
       </c>
@@ -68515,10 +68529,10 @@
       </c>
     </row>
     <row r="30" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A30" s="68" t="s">
+      <c r="A30" s="85" t="s">
         <v>136</v>
       </c>
-      <c r="B30" s="69"/>
+      <c r="B30" s="86"/>
       <c r="C30" s="9" t="s">
         <v>7</v>
       </c>
@@ -68599,10 +68613,10 @@
       </c>
     </row>
     <row r="31" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A31" s="68" t="s">
+      <c r="A31" s="85" t="s">
         <v>137</v>
       </c>
-      <c r="B31" s="69"/>
+      <c r="B31" s="86"/>
       <c r="C31" s="9" t="s">
         <v>7</v>
       </c>
@@ -68683,10 +68697,10 @@
       </c>
     </row>
     <row r="32" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A32" s="68" t="s">
+      <c r="A32" s="85" t="s">
         <v>138</v>
       </c>
-      <c r="B32" s="69"/>
+      <c r="B32" s="86"/>
       <c r="C32" s="9" t="s">
         <v>7</v>
       </c>
@@ -68767,10 +68781,10 @@
       </c>
     </row>
     <row r="33" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A33" s="68" t="s">
+      <c r="A33" s="85" t="s">
         <v>139</v>
       </c>
-      <c r="B33" s="69"/>
+      <c r="B33" s="86"/>
       <c r="C33" s="9" t="s">
         <v>7</v>
       </c>
@@ -68851,10 +68865,10 @@
       </c>
     </row>
     <row r="34" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A34" s="68" t="s">
+      <c r="A34" s="85" t="s">
         <v>140</v>
       </c>
-      <c r="B34" s="69"/>
+      <c r="B34" s="86"/>
       <c r="C34" s="9" t="s">
         <v>7</v>
       </c>
@@ -68935,10 +68949,10 @@
       </c>
     </row>
     <row r="35" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A35" s="68" t="s">
+      <c r="A35" s="85" t="s">
         <v>141</v>
       </c>
-      <c r="B35" s="69"/>
+      <c r="B35" s="86"/>
       <c r="C35" s="9" t="s">
         <v>7</v>
       </c>
@@ -69019,10 +69033,10 @@
       </c>
     </row>
     <row r="36" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A36" s="68" t="s">
+      <c r="A36" s="85" t="s">
         <v>142</v>
       </c>
-      <c r="B36" s="69"/>
+      <c r="B36" s="86"/>
       <c r="C36" s="9" t="s">
         <v>7</v>
       </c>
@@ -69103,10 +69117,10 @@
       </c>
     </row>
     <row r="37" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A37" s="68" t="s">
+      <c r="A37" s="85" t="s">
         <v>143</v>
       </c>
-      <c r="B37" s="69"/>
+      <c r="B37" s="86"/>
       <c r="C37" s="9" t="s">
         <v>7</v>
       </c>
@@ -69187,10 +69201,10 @@
       </c>
     </row>
     <row r="38" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A38" s="68" t="s">
+      <c r="A38" s="85" t="s">
         <v>144</v>
       </c>
-      <c r="B38" s="69"/>
+      <c r="B38" s="86"/>
       <c r="C38" s="9" t="s">
         <v>7</v>
       </c>
@@ -69271,10 +69285,10 @@
       </c>
     </row>
     <row r="39" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A39" s="68" t="s">
+      <c r="A39" s="85" t="s">
         <v>145</v>
       </c>
-      <c r="B39" s="69"/>
+      <c r="B39" s="86"/>
       <c r="C39" s="9" t="s">
         <v>7</v>
       </c>
@@ -69355,10 +69369,10 @@
       </c>
     </row>
     <row r="40" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A40" s="68" t="s">
+      <c r="A40" s="85" t="s">
         <v>146</v>
       </c>
-      <c r="B40" s="69"/>
+      <c r="B40" s="86"/>
       <c r="C40" s="9" t="s">
         <v>7</v>
       </c>
@@ -69439,10 +69453,10 @@
       </c>
     </row>
     <row r="41" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A41" s="68" t="s">
+      <c r="A41" s="85" t="s">
         <v>152</v>
       </c>
-      <c r="B41" s="69"/>
+      <c r="B41" s="86"/>
       <c r="C41" s="9" t="s">
         <v>7</v>
       </c>
@@ -69523,10 +69537,10 @@
       </c>
     </row>
     <row r="42" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A42" s="68" t="s">
+      <c r="A42" s="85" t="s">
         <v>147</v>
       </c>
-      <c r="B42" s="69"/>
+      <c r="B42" s="86"/>
       <c r="C42" s="9" t="s">
         <v>7</v>
       </c>
@@ -69607,10 +69621,10 @@
       </c>
     </row>
     <row r="43" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A43" s="68" t="s">
+      <c r="A43" s="85" t="s">
         <v>154</v>
       </c>
-      <c r="B43" s="69"/>
+      <c r="B43" s="86"/>
       <c r="C43" s="9" t="s">
         <v>7</v>
       </c>
@@ -69691,10 +69705,10 @@
       </c>
     </row>
     <row r="44" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A44" s="68" t="s">
+      <c r="A44" s="85" t="s">
         <v>148</v>
       </c>
-      <c r="B44" s="69"/>
+      <c r="B44" s="86"/>
       <c r="C44" s="9" t="s">
         <v>7</v>
       </c>
@@ -69775,10 +69789,10 @@
       </c>
     </row>
     <row r="45" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A45" s="68" t="s">
+      <c r="A45" s="85" t="s">
         <v>149</v>
       </c>
-      <c r="B45" s="69"/>
+      <c r="B45" s="86"/>
       <c r="C45" s="9" t="s">
         <v>7</v>
       </c>
@@ -69859,7 +69873,7 @@
       </c>
     </row>
     <row r="46" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A46" s="70" t="s">
+      <c r="A46" s="89" t="s">
         <v>150</v>
       </c>
       <c r="B46" s="10" t="s">
@@ -69945,7 +69959,7 @@
       </c>
     </row>
     <row r="47" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A47" s="71"/>
+      <c r="A47" s="90"/>
       <c r="B47" s="10" t="s">
         <v>151</v>
       </c>
@@ -70035,36 +70049,11 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:AB3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:AB4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:AB6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:AB7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:A47"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A30:B30"/>
@@ -70078,11 +70067,36 @@
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:AB6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:AB7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:AB3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:AB4"/>
+    <mergeCell ref="A5:C5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;ShowOnWeb=true&amp;Lang=en"/>
@@ -70127,72 +70141,72 @@
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="88" t="s">
+      <c r="B3" s="69"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="71" t="s">
         <v>160</v>
       </c>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="89"/>
-      <c r="S3" s="89"/>
-      <c r="T3" s="89"/>
-      <c r="U3" s="89"/>
-      <c r="V3" s="89"/>
-      <c r="W3" s="89"/>
-      <c r="X3" s="89"/>
-      <c r="Y3" s="89"/>
-      <c r="Z3" s="89"/>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="90"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="72"/>
+      <c r="T3" s="72"/>
+      <c r="U3" s="72"/>
+      <c r="V3" s="72"/>
+      <c r="W3" s="72"/>
+      <c r="X3" s="72"/>
+      <c r="Y3" s="72"/>
+      <c r="Z3" s="72"/>
+      <c r="AA3" s="72"/>
+      <c r="AB3" s="73"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="88" t="s">
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="71" t="s">
         <v>187</v>
       </c>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="89"/>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="89"/>
-      <c r="S4" s="89"/>
-      <c r="T4" s="89"/>
-      <c r="U4" s="89"/>
-      <c r="V4" s="89"/>
-      <c r="W4" s="89"/>
-      <c r="X4" s="89"/>
-      <c r="Y4" s="89"/>
-      <c r="Z4" s="89"/>
-      <c r="AA4" s="89"/>
-      <c r="AB4" s="90"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="72"/>
+      <c r="U4" s="72"/>
+      <c r="V4" s="72"/>
+      <c r="W4" s="72"/>
+      <c r="X4" s="72"/>
+      <c r="Y4" s="72"/>
+      <c r="Z4" s="72"/>
+      <c r="AA4" s="72"/>
+      <c r="AB4" s="73"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A5" s="74" t="s">
@@ -70429,10 +70443,10 @@
       </c>
     </row>
     <row r="9" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="B9" s="69"/>
+      <c r="B9" s="86"/>
       <c r="C9" s="9" t="s">
         <v>7</v>
       </c>
@@ -70513,10 +70527,10 @@
       </c>
     </row>
     <row r="10" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="B10" s="69"/>
+      <c r="B10" s="86"/>
       <c r="C10" s="9" t="s">
         <v>7</v>
       </c>
@@ -70597,10 +70611,10 @@
       </c>
     </row>
     <row r="11" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="85" t="s">
         <v>119</v>
       </c>
-      <c r="B11" s="69"/>
+      <c r="B11" s="86"/>
       <c r="C11" s="9" t="s">
         <v>7</v>
       </c>
@@ -70681,10 +70695,10 @@
       </c>
     </row>
     <row r="12" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="85" t="s">
         <v>120</v>
       </c>
-      <c r="B12" s="69"/>
+      <c r="B12" s="86"/>
       <c r="C12" s="9" t="s">
         <v>7</v>
       </c>
@@ -70765,10 +70779,10 @@
       </c>
     </row>
     <row r="13" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="B13" s="69"/>
+      <c r="B13" s="86"/>
       <c r="C13" s="9" t="s">
         <v>7</v>
       </c>
@@ -70849,10 +70863,10 @@
       </c>
     </row>
     <row r="14" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A14" s="68" t="s">
+      <c r="A14" s="85" t="s">
         <v>122</v>
       </c>
-      <c r="B14" s="69"/>
+      <c r="B14" s="86"/>
       <c r="C14" s="9" t="s">
         <v>7</v>
       </c>
@@ -70933,10 +70947,10 @@
       </c>
     </row>
     <row r="15" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A15" s="68" t="s">
+      <c r="A15" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="B15" s="69"/>
+      <c r="B15" s="86"/>
       <c r="C15" s="9" t="s">
         <v>7</v>
       </c>
@@ -71017,10 +71031,10 @@
       </c>
     </row>
     <row r="16" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="85" t="s">
         <v>124</v>
       </c>
-      <c r="B16" s="69"/>
+      <c r="B16" s="86"/>
       <c r="C16" s="9" t="s">
         <v>7</v>
       </c>
@@ -71101,10 +71115,10 @@
       </c>
     </row>
     <row r="17" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A17" s="68" t="s">
+      <c r="A17" s="85" t="s">
         <v>125</v>
       </c>
-      <c r="B17" s="69"/>
+      <c r="B17" s="86"/>
       <c r="C17" s="9" t="s">
         <v>7</v>
       </c>
@@ -71185,10 +71199,10 @@
       </c>
     </row>
     <row r="18" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A18" s="68" t="s">
+      <c r="A18" s="85" t="s">
         <v>126</v>
       </c>
-      <c r="B18" s="69"/>
+      <c r="B18" s="86"/>
       <c r="C18" s="9" t="s">
         <v>7</v>
       </c>
@@ -71269,10 +71283,10 @@
       </c>
     </row>
     <row r="19" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A19" s="72" t="s">
+      <c r="A19" s="87" t="s">
         <v>127</v>
       </c>
-      <c r="B19" s="73"/>
+      <c r="B19" s="88"/>
       <c r="C19" s="9" t="s">
         <v>7</v>
       </c>
@@ -71353,10 +71367,10 @@
       </c>
     </row>
     <row r="20" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A20" s="68" t="s">
+      <c r="A20" s="85" t="s">
         <v>128</v>
       </c>
-      <c r="B20" s="69"/>
+      <c r="B20" s="86"/>
       <c r="C20" s="9" t="s">
         <v>7</v>
       </c>
@@ -71437,10 +71451,10 @@
       </c>
     </row>
     <row r="21" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A21" s="68" t="s">
+      <c r="A21" s="85" t="s">
         <v>129</v>
       </c>
-      <c r="B21" s="69"/>
+      <c r="B21" s="86"/>
       <c r="C21" s="9" t="s">
         <v>7</v>
       </c>
@@ -71521,10 +71535,10 @@
       </c>
     </row>
     <row r="22" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A22" s="68" t="s">
+      <c r="A22" s="85" t="s">
         <v>130</v>
       </c>
-      <c r="B22" s="69"/>
+      <c r="B22" s="86"/>
       <c r="C22" s="9" t="s">
         <v>7</v>
       </c>
@@ -71605,10 +71619,10 @@
       </c>
     </row>
     <row r="23" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A23" s="72" t="s">
+      <c r="A23" s="87" t="s">
         <v>131</v>
       </c>
-      <c r="B23" s="73"/>
+      <c r="B23" s="88"/>
       <c r="C23" s="9" t="s">
         <v>7</v>
       </c>
@@ -71689,10 +71703,10 @@
       </c>
     </row>
     <row r="24" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A24" s="72" t="s">
+      <c r="A24" s="87" t="s">
         <v>132</v>
       </c>
-      <c r="B24" s="73"/>
+      <c r="B24" s="88"/>
       <c r="C24" s="9" t="s">
         <v>7</v>
       </c>
@@ -71773,10 +71787,10 @@
       </c>
     </row>
     <row r="25" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A25" s="68" t="s">
+      <c r="A25" s="85" t="s">
         <v>133</v>
       </c>
-      <c r="B25" s="69"/>
+      <c r="B25" s="86"/>
       <c r="C25" s="9" t="s">
         <v>7</v>
       </c>
@@ -71857,10 +71871,10 @@
       </c>
     </row>
     <row r="26" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A26" s="68" t="s">
+      <c r="A26" s="85" t="s">
         <v>159</v>
       </c>
-      <c r="B26" s="69"/>
+      <c r="B26" s="86"/>
       <c r="C26" s="9" t="s">
         <v>7</v>
       </c>
@@ -71941,10 +71955,10 @@
       </c>
     </row>
     <row r="27" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A27" s="68" t="s">
+      <c r="A27" s="85" t="s">
         <v>155</v>
       </c>
-      <c r="B27" s="69"/>
+      <c r="B27" s="86"/>
       <c r="C27" s="9" t="s">
         <v>7</v>
       </c>
@@ -72025,10 +72039,10 @@
       </c>
     </row>
     <row r="28" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A28" s="68" t="s">
+      <c r="A28" s="85" t="s">
         <v>134</v>
       </c>
-      <c r="B28" s="69"/>
+      <c r="B28" s="86"/>
       <c r="C28" s="9" t="s">
         <v>7</v>
       </c>
@@ -72109,10 +72123,10 @@
       </c>
     </row>
     <row r="29" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A29" s="68" t="s">
+      <c r="A29" s="85" t="s">
         <v>135</v>
       </c>
-      <c r="B29" s="69"/>
+      <c r="B29" s="86"/>
       <c r="C29" s="9" t="s">
         <v>7</v>
       </c>
@@ -72193,10 +72207,10 @@
       </c>
     </row>
     <row r="30" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A30" s="68" t="s">
+      <c r="A30" s="85" t="s">
         <v>136</v>
       </c>
-      <c r="B30" s="69"/>
+      <c r="B30" s="86"/>
       <c r="C30" s="9" t="s">
         <v>7</v>
       </c>
@@ -72277,10 +72291,10 @@
       </c>
     </row>
     <row r="31" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A31" s="68" t="s">
+      <c r="A31" s="85" t="s">
         <v>137</v>
       </c>
-      <c r="B31" s="69"/>
+      <c r="B31" s="86"/>
       <c r="C31" s="9" t="s">
         <v>7</v>
       </c>
@@ -72361,10 +72375,10 @@
       </c>
     </row>
     <row r="32" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A32" s="68" t="s">
+      <c r="A32" s="85" t="s">
         <v>138</v>
       </c>
-      <c r="B32" s="69"/>
+      <c r="B32" s="86"/>
       <c r="C32" s="9" t="s">
         <v>7</v>
       </c>
@@ -72445,10 +72459,10 @@
       </c>
     </row>
     <row r="33" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A33" s="68" t="s">
+      <c r="A33" s="85" t="s">
         <v>139</v>
       </c>
-      <c r="B33" s="69"/>
+      <c r="B33" s="86"/>
       <c r="C33" s="9" t="s">
         <v>7</v>
       </c>
@@ -72529,10 +72543,10 @@
       </c>
     </row>
     <row r="34" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A34" s="68" t="s">
+      <c r="A34" s="85" t="s">
         <v>140</v>
       </c>
-      <c r="B34" s="69"/>
+      <c r="B34" s="86"/>
       <c r="C34" s="9" t="s">
         <v>7</v>
       </c>
@@ -72613,10 +72627,10 @@
       </c>
     </row>
     <row r="35" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A35" s="68" t="s">
+      <c r="A35" s="85" t="s">
         <v>141</v>
       </c>
-      <c r="B35" s="69"/>
+      <c r="B35" s="86"/>
       <c r="C35" s="9" t="s">
         <v>7</v>
       </c>
@@ -72697,10 +72711,10 @@
       </c>
     </row>
     <row r="36" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A36" s="68" t="s">
+      <c r="A36" s="85" t="s">
         <v>142</v>
       </c>
-      <c r="B36" s="69"/>
+      <c r="B36" s="86"/>
       <c r="C36" s="9" t="s">
         <v>7</v>
       </c>
@@ -72781,10 +72795,10 @@
       </c>
     </row>
     <row r="37" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A37" s="68" t="s">
+      <c r="A37" s="85" t="s">
         <v>143</v>
       </c>
-      <c r="B37" s="69"/>
+      <c r="B37" s="86"/>
       <c r="C37" s="9" t="s">
         <v>7</v>
       </c>
@@ -72865,10 +72879,10 @@
       </c>
     </row>
     <row r="38" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A38" s="68" t="s">
+      <c r="A38" s="85" t="s">
         <v>144</v>
       </c>
-      <c r="B38" s="69"/>
+      <c r="B38" s="86"/>
       <c r="C38" s="9" t="s">
         <v>7</v>
       </c>
@@ -72949,10 +72963,10 @@
       </c>
     </row>
     <row r="39" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A39" s="68" t="s">
+      <c r="A39" s="85" t="s">
         <v>145</v>
       </c>
-      <c r="B39" s="69"/>
+      <c r="B39" s="86"/>
       <c r="C39" s="9" t="s">
         <v>7</v>
       </c>
@@ -73033,10 +73047,10 @@
       </c>
     </row>
     <row r="40" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A40" s="68" t="s">
+      <c r="A40" s="85" t="s">
         <v>146</v>
       </c>
-      <c r="B40" s="69"/>
+      <c r="B40" s="86"/>
       <c r="C40" s="9" t="s">
         <v>7</v>
       </c>
@@ -73117,10 +73131,10 @@
       </c>
     </row>
     <row r="41" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A41" s="68" t="s">
+      <c r="A41" s="85" t="s">
         <v>152</v>
       </c>
-      <c r="B41" s="69"/>
+      <c r="B41" s="86"/>
       <c r="C41" s="9" t="s">
         <v>7</v>
       </c>
@@ -73201,10 +73215,10 @@
       </c>
     </row>
     <row r="42" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A42" s="68" t="s">
+      <c r="A42" s="85" t="s">
         <v>147</v>
       </c>
-      <c r="B42" s="69"/>
+      <c r="B42" s="86"/>
       <c r="C42" s="9" t="s">
         <v>7</v>
       </c>
@@ -73285,10 +73299,10 @@
       </c>
     </row>
     <row r="43" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A43" s="68" t="s">
+      <c r="A43" s="85" t="s">
         <v>154</v>
       </c>
-      <c r="B43" s="69"/>
+      <c r="B43" s="86"/>
       <c r="C43" s="9" t="s">
         <v>7</v>
       </c>
@@ -73369,10 +73383,10 @@
       </c>
     </row>
     <row r="44" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A44" s="68" t="s">
+      <c r="A44" s="85" t="s">
         <v>148</v>
       </c>
-      <c r="B44" s="69"/>
+      <c r="B44" s="86"/>
       <c r="C44" s="9" t="s">
         <v>7</v>
       </c>
@@ -73453,10 +73467,10 @@
       </c>
     </row>
     <row r="45" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A45" s="68" t="s">
+      <c r="A45" s="85" t="s">
         <v>149</v>
       </c>
-      <c r="B45" s="69"/>
+      <c r="B45" s="86"/>
       <c r="C45" s="9" t="s">
         <v>7</v>
       </c>
@@ -73537,7 +73551,7 @@
       </c>
     </row>
     <row r="46" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A46" s="70" t="s">
+      <c r="A46" s="89" t="s">
         <v>150</v>
       </c>
       <c r="B46" s="10" t="s">
@@ -73623,7 +73637,7 @@
       </c>
     </row>
     <row r="47" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A47" s="71"/>
+      <c r="A47" s="90"/>
       <c r="B47" s="10" t="s">
         <v>151</v>
       </c>
@@ -73713,36 +73727,11 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:AB3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:AB4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:AB6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:AB7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:A47"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A30:B30"/>
@@ -73756,11 +73745,36 @@
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:AB6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:AB7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:AB3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:AB4"/>
+    <mergeCell ref="A5:C5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;ShowOnWeb=true&amp;Lang=en"/>
